--- a/templates/2EXT01_RNA/2EXT01_RNA.xlsx
+++ b/templates/2EXT01_RNA/2EXT01_RNA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/2EXT01_RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C8DC97-3CBF-1243-B146-F77551385F98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7891E31-DFD0-A147-BDB1-18BC66C25880}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4720" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-4700" yWindow="-21080" windowWidth="38400" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT01_RNA" sheetId="3" r:id="rId1"/>
@@ -25,39 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Source Name</t>
   </si>
   <si>
     <t>Sample Name</t>
-  </si>
-  <si>
-    <t>Term Source REF [Sample Collection Method] (#h; #tNFDI4PSO:0000009)</t>
-  </si>
-  <si>
-    <t>Term Accession Number [Sample Collection Method] (#h; #tNFDI4PSO:0000009)</t>
-  </si>
-  <si>
-    <t>Term Source REF [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)</t>
-  </si>
-  <si>
-    <t>Term Accession Number [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)</t>
-  </si>
-  <si>
-    <t>Term Source REF [Sample storage] (#h; #tNFDI4PSO:0000011)</t>
-  </si>
-  <si>
-    <t>Term Accession Number [Sample storage] (#h; #tNFDI4PSO:0000011)</t>
-  </si>
-  <si>
-    <t>Parameter [Sample Collection Method]</t>
-  </si>
-  <si>
-    <t>Parameter [Metabolism quenching method]</t>
-  </si>
-  <si>
-    <t>Parameter [Sample storage]</t>
   </si>
   <si>
     <t>Term Source REF [Bio entity] (#h; #tNFDI4PSO:0000012)</t>
@@ -192,21 +165,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -225,20 +189,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76206DCD-B1F6-C24E-BAE1-D2FB91ABFB99}" name="annotationTable1" displayName="annotationTable1" ref="A2:W3" totalsRowShown="0">
-  <autoFilter ref="A2:W3" xr:uid="{832614FC-4AE4-BA4A-9BF7-BFA6BCCB799C}"/>
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76206DCD-B1F6-C24E-BAE1-D2FB91ABFB99}" name="annotationTable1" displayName="annotationTable1" ref="A2:N3" totalsRowShown="0">
+  <autoFilter ref="A2:N3" xr:uid="{832614FC-4AE4-BA4A-9BF7-BFA6BCCB799C}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{DECFF8D0-3CE7-FE4A-AE75-815E572E9742}" name="Source Name"/>
     <tableColumn id="2" xr3:uid="{C40C8FCE-0AA0-4049-8114-5B5645A6E93C}" name="Sample Name"/>
-    <tableColumn id="3" xr3:uid="{20DAA857-3FBC-C941-AADC-060A96DEADF2}" name="Parameter [Sample Collection Method]" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{C9605524-3CEA-AC46-B05E-ED1B5E14C69A}" name="Term Source REF [Sample Collection Method] (#h; #tNFDI4PSO:0000009)"/>
-    <tableColumn id="5" xr3:uid="{C2610E16-4C1D-6345-82D0-10C06080E7FC}" name="Term Accession Number [Sample Collection Method] (#h; #tNFDI4PSO:0000009)"/>
-    <tableColumn id="6" xr3:uid="{140DA44E-189D-6846-940D-3E7DE2BAD706}" name="Parameter [Metabolism quenching method]" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{E7219A0C-D0AE-1241-8047-E9F182D5F70A}" name="Term Source REF [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)"/>
-    <tableColumn id="8" xr3:uid="{21AF4794-4E0D-1C40-AFA2-2255759512E5}" name="Term Accession Number [Metabolism quenching method] (#h; #tNFDI4PSO:0000010)"/>
-    <tableColumn id="9" xr3:uid="{B8912554-0797-3D4F-9335-10B5217762F2}" name="Parameter [Sample storage]" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{77E7A3BD-3B3F-0443-9E04-9D4DF740A400}" name="Term Source REF [Sample storage] (#h; #tNFDI4PSO:0000011)"/>
-    <tableColumn id="11" xr3:uid="{26746FEC-DD62-8440-A8FB-011ED2D21EBF}" name="Term Accession Number [Sample storage] (#h; #tNFDI4PSO:0000011)"/>
     <tableColumn id="12" xr3:uid="{D487B3C2-FCC9-9748-9A8A-0D6A83AEB324}" name="Parameter [Bio entity]" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{4B0FE9CC-E2ED-AF4A-90D4-FAB6DBED33EE}" name="Term Source REF [Bio entity] (#h; #tNFDI4PSO:0000012)"/>
     <tableColumn id="14" xr3:uid="{522BBFA9-4A80-D745-87FE-9CAA1BAF6807}" name="Term Accession Number [Bio entity] (#h; #tNFDI4PSO:0000012)"/>
@@ -574,37 +529,28 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="71.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.1640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="75.33203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="56.1640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="62.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.1640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="57.33203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="58.1640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="64.33203125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="48.1640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="54.33203125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="54.33203125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="60.6640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="57.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.1640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="64.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="37.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="48.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="54.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="60.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -618,18 +564,9 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -637,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -646,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -658,55 +595,25 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" t="s">
-        <v>17</v>
-      </c>
-      <c r="W2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="F3" s="5"/>
       <c r="L3" s="3"/>
-      <c r="O3" s="5"/>
-      <c r="U3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -720,22 +627,19 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTable1" Worksheet="2EXT01_RNA">
-    <TableValidation DateTime="2021-03-03 16:31" SwateVersion="0.4.0" TableName="annotationTable1" Userlist="" WorksheetName="2EXT01_RNA">
+    <TableValidation DateTime="2021-03-12 12:36" SwateVersion="0.4.0" TableName="annotationTable1" Userlist="" WorksheetName="2EXT01_RNA">
       <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="2" ColumnHeader="Parameter [Sample Collection Method]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="5" ColumnHeader="Parameter [Metabolism quenching method]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="8" ColumnHeader="Parameter [Sample storage]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Bio entity]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Bio entity"/>
-      <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Biosource amount]" Importance="4" Unit="milligram" ValidationFormat="UnitTerm milligram"/>
-      <ColumnValidation ColumnAdress="20" ColumnHeader="Parameter [Extraction Kit]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="2" ColumnHeader="Parameter [Bio entity]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Bio entity"/>
+      <ColumnValidation ColumnAdress="5" ColumnHeader="Parameter [Biosource amount]" Importance="4" Unit="milligram" ValidationFormat="UnitTerm milligram"/>
+      <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Extraction Kit]" Importance="None" Unit="None" ValidationFormat="None"/>
     </TableValidation>
   </SwateTable>
 </customXml>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD6F853E-A215-434E-827E-B506247F4F84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E41B65FD-FA03-EE43-989A-D7DD344621F8}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/2EXT01_RNA/2EXT01_RNA.xlsx
+++ b/templates/2EXT01_RNA/2EXT01_RNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/2EXT01_RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7891E31-DFD0-A147-BDB1-18BC66C25880}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6F5E75-362C-204C-A5CD-047DCD666E58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4700" yWindow="-21080" windowWidth="38400" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-4720" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT01_RNA" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Source Name</t>
   </si>
@@ -67,14 +67,42 @@
   </si>
   <si>
     <t>Parameter [Extraction Kit]</t>
+  </si>
+  <si>
+    <t>Parameter [Extraction buffer]</t>
+  </si>
+  <si>
+    <t>Term Source REF [Extraction buffer] (#h; #tNFDI4PSO:0000050)</t>
+  </si>
+  <si>
+    <t>Term Accession Number [Extraction buffer] (#h; #tNFDI4PSO:0000050)</t>
+  </si>
+  <si>
+    <t>Parameter [Extraction buffer volume]</t>
+  </si>
+  <si>
+    <t>Term Source REF [Extraction buffer volume] (#h; #tNFDI4PSO:0000051)</t>
+  </si>
+  <si>
+    <t>Term Accession Number [Extraction buffer volume] (#h; #tNFDI4PSO:0000051)</t>
+  </si>
+  <si>
+    <t>Unit [microliter] (#h; #tUO:0000101; #u)</t>
+  </si>
+  <si>
+    <t>Term Source REF [microliter] (#h; #tUO:0000101; #u)</t>
+  </si>
+  <si>
+    <t>Term Accession Number [microliter] (#h; #tUO:0000101; #u)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -148,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,11 +189,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -189,23 +224,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76206DCD-B1F6-C24E-BAE1-D2FB91ABFB99}" name="annotationTable1" displayName="annotationTable1" ref="A2:N3" totalsRowShown="0">
-  <autoFilter ref="A2:N3" xr:uid="{832614FC-4AE4-BA4A-9BF7-BFA6BCCB799C}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76206DCD-B1F6-C24E-BAE1-D2FB91ABFB99}" name="annotationTable1" displayName="annotationTable1" ref="A2:W3" totalsRowShown="0">
+  <autoFilter ref="A2:W3" xr:uid="{832614FC-4AE4-BA4A-9BF7-BFA6BCCB799C}"/>
+  <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{DECFF8D0-3CE7-FE4A-AE75-815E572E9742}" name="Source Name"/>
     <tableColumn id="2" xr3:uid="{C40C8FCE-0AA0-4049-8114-5B5645A6E93C}" name="Sample Name"/>
-    <tableColumn id="12" xr3:uid="{D487B3C2-FCC9-9748-9A8A-0D6A83AEB324}" name="Parameter [Bio entity]" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{D487B3C2-FCC9-9748-9A8A-0D6A83AEB324}" name="Parameter [Bio entity]" dataDxfId="4"/>
     <tableColumn id="13" xr3:uid="{4B0FE9CC-E2ED-AF4A-90D4-FAB6DBED33EE}" name="Term Source REF [Bio entity] (#h; #tNFDI4PSO:0000012)"/>
     <tableColumn id="14" xr3:uid="{522BBFA9-4A80-D745-87FE-9CAA1BAF6807}" name="Term Accession Number [Bio entity] (#h; #tNFDI4PSO:0000012)"/>
-    <tableColumn id="15" xr3:uid="{6607B5DF-7714-E943-8E91-48985930C54B}" name="Parameter [Biosource amount]" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{6607B5DF-7714-E943-8E91-48985930C54B}" name="Parameter [Biosource amount]" dataDxfId="3"/>
     <tableColumn id="16" xr3:uid="{78C0B04C-E73C-FB43-A41E-494193F7A48C}" name="Term Source REF [Biosource amount] (#h; #tNFDI4PSO:0000013)"/>
     <tableColumn id="17" xr3:uid="{2D769069-CC3A-EE43-BE2D-4B768EFAD693}" name="Term Accession Number [Biosource amount] (#h; #tNFDI4PSO:0000013)"/>
     <tableColumn id="21" xr3:uid="{8DC2DF91-CE94-E94A-A5B4-02752EE2C776}" name="Unit [milligram] (#h; #tUO:0000022; #u)"/>
     <tableColumn id="22" xr3:uid="{5D24ADED-ED35-9945-B1D3-AD774AF07057}" name="Term Source REF [milligram] (#h; #tUO:0000022; #u)"/>
     <tableColumn id="23" xr3:uid="{572598D7-894F-5149-8C6D-4A78BC6C27F2}" name="Term Accession Number [milligram] (#h; #tUO:0000022; #u)"/>
-    <tableColumn id="18" xr3:uid="{FFC95040-19C9-734F-A4E3-B5611916C3A4}" name="Parameter [Extraction Kit]" dataDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{FFC95040-19C9-734F-A4E3-B5611916C3A4}" name="Parameter [Extraction Kit]" dataDxfId="2"/>
     <tableColumn id="19" xr3:uid="{FEFD66AC-DF32-8141-95E1-36BD2B6F792C}" name="Term Source REF [Extraction Kit] (#h; #tNFDI4PSO:0000014)"/>
     <tableColumn id="20" xr3:uid="{1149D66F-4ABD-6846-8CB4-4DC6BD6B8DC2}" name="Term Accession Number [Extraction Kit] (#h; #tNFDI4PSO:0000014)"/>
+    <tableColumn id="3" xr3:uid="{1BA7D7BD-0172-D24F-8453-ED3666AE07C6}" name="Parameter [Extraction buffer]" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{5A08E2A9-B247-A349-8E06-07F3569AE22E}" name="Term Source REF [Extraction buffer] (#h; #tNFDI4PSO:0000050)"/>
+    <tableColumn id="5" xr3:uid="{25876647-E95A-044B-9E30-DA15780D6980}" name="Term Accession Number [Extraction buffer] (#h; #tNFDI4PSO:0000050)"/>
+    <tableColumn id="6" xr3:uid="{D751E028-9AD1-2742-A18D-568661A5D639}" name="Parameter [Extraction buffer volume]" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{08853ADC-69EB-484C-B596-6F5F8AAFBFA9}" name="Term Source REF [Extraction buffer volume] (#h; #tNFDI4PSO:0000051)"/>
+    <tableColumn id="8" xr3:uid="{2F5A3FD0-B97E-3546-B233-668066642CFA}" name="Term Accession Number [Extraction buffer volume] (#h; #tNFDI4PSO:0000051)"/>
+    <tableColumn id="9" xr3:uid="{818D6D68-D03E-E947-BFFB-4028187F6132}" name="Unit [microliter] (#h; #tUO:0000101; #u)"/>
+    <tableColumn id="10" xr3:uid="{9027E325-ED31-A045-9A35-13FF444EB372}" name="Term Source REF [microliter] (#h; #tUO:0000101; #u)"/>
+    <tableColumn id="11" xr3:uid="{3A8F4E34-DB64-FD49-BA49-A79AFA7B8080}" name="Term Accession Number [microliter] (#h; #tUO:0000101; #u)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -529,7 +573,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,12 +589,21 @@
     <col min="9" max="9" width="37.33203125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="48.1640625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="54.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="54.33203125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="60.6640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="57.1640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="63.33203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="64" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="70.1640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="37.33203125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="48.1640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="54.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -564,9 +617,18 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="2"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -609,11 +671,40 @@
       <c r="N2" t="s">
         <v>9</v>
       </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
       <c r="F3" s="5"/>
       <c r="L3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="R3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -627,19 +718,21 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTable1" Worksheet="2EXT01_RNA">
-    <TableValidation DateTime="2021-03-12 12:36" SwateVersion="0.4.0" TableName="annotationTable1" Userlist="" WorksheetName="2EXT01_RNA">
+    <TableValidation DateTime="2021-03-12 14:48" SwateVersion="0.4.0" TableName="annotationTable1" Userlist="" WorksheetName="2EXT01_RNA">
       <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="2" ColumnHeader="Parameter [Bio entity]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Bio entity"/>
       <ColumnValidation ColumnAdress="5" ColumnHeader="Parameter [Biosource amount]" Importance="4" Unit="milligram" ValidationFormat="UnitTerm milligram"/>
-      <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Extraction Kit]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Extraction Kit]" Importance="4" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Extraction buffer]" Importance="4" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="17" ColumnHeader="Parameter [Extraction buffer volume]" Importance="4" Unit="microliter" ValidationFormat="UnitTerm microliter"/>
     </TableValidation>
   </SwateTable>
 </customXml>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E41B65FD-FA03-EE43-989A-D7DD344621F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C44CF77C-EAFF-5141-BDAC-352B7E3BD96E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/2EXT01_RNA/2EXT01_RNA.xlsx
+++ b/templates/2EXT01_RNA/2EXT01_RNA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/2EXT01_RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6F5E75-362C-204C-A5CD-047DCD666E58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E323E448-EA30-9145-A8FE-1013341479AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4720" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-4720" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT01_RNA" sheetId="3" r:id="rId1"/>
@@ -24,8 +24,81 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dominik Brilhaus</author>
+  </authors>
+  <commentList>
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{7C6585D6-F230-8345-9C07-7B5E17735AEE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dominik Brilhaus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">cv: controlled vocabulary
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">m: mandatory 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">o: optional (can be mapped)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>n: not required (cannot be mapped)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>Source Name</t>
   </si>
@@ -51,12 +124,6 @@
     <t>Parameter [Biosource amount]</t>
   </si>
   <si>
-    <t>Term Source REF [Extraction Kit] (#h; #tNFDI4PSO:0000014)</t>
-  </si>
-  <si>
-    <t>Term Accession Number [Extraction Kit] (#h; #tNFDI4PSO:0000014)</t>
-  </si>
-  <si>
     <t>Unit [milligram] (#h; #tUO:0000022; #u)</t>
   </si>
   <si>
@@ -66,9 +133,6 @@
     <t>Term Accession Number [milligram] (#h; #tUO:0000022; #u)</t>
   </si>
   <si>
-    <t>Parameter [Extraction Kit]</t>
-  </si>
-  <si>
     <t>Parameter [Extraction buffer]</t>
   </si>
   <si>
@@ -94,6 +158,156 @@
   </si>
   <si>
     <t>Term Accession Number [microliter] (#h; #tUO:0000101; #u)</t>
+  </si>
+  <si>
+    <t>SWATE annotation table</t>
+  </si>
+  <si>
+    <t>Content examples</t>
+  </si>
+  <si>
+    <t>Semantic Modelling</t>
+  </si>
+  <si>
+    <t>Term Name</t>
+  </si>
+  <si>
+    <t>Term Accession Number (TAN)</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>is_a</t>
+  </si>
+  <si>
+    <t>is_a URI</t>
+  </si>
+  <si>
+    <t>Content type (Validation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment: </t>
+  </si>
+  <si>
+    <t>ER Pipeline: GEO - RNASeq - Plants</t>
+  </si>
+  <si>
+    <t>ER target term</t>
+  </si>
+  <si>
+    <t>ER requirement (cv/m/o/n)</t>
+  </si>
+  <si>
+    <t>Importance (0-5)</t>
+  </si>
+  <si>
+    <t>Justification</t>
+  </si>
+  <si>
+    <t>Additional information</t>
+  </si>
+  <si>
+    <t>User instruction</t>
+  </si>
+  <si>
+    <t>Bio entity</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000012</t>
+  </si>
+  <si>
+    <t>Biosource amount</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000013</t>
+  </si>
+  <si>
+    <t>Extraction buffer</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000050</t>
+  </si>
+  <si>
+    <t>Extraction buffer volume</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000051</t>
+  </si>
+  <si>
+    <t>RNA (Transcriptomics)</t>
+  </si>
+  <si>
+    <t>DNA (Genomics)</t>
+  </si>
+  <si>
+    <t>Metabolites</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Parameter [RNA quality check]</t>
+  </si>
+  <si>
+    <t>Term Source REF [RNA quality check] (#h; #tNFDI4PSO:0000062)</t>
+  </si>
+  <si>
+    <t>Term Accession Number [RNA quality check] (#h; #tNFDI4PSO:0000062)</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000062</t>
+  </si>
+  <si>
+    <t>RNA quality check</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000054</t>
+  </si>
+  <si>
+    <t>Parameter [Extraction method]</t>
+  </si>
+  <si>
+    <t>Term Source REF [Extraction method] (#h; #tNFDI4PSO:0000054)</t>
+  </si>
+  <si>
+    <t>Term Accession Number [Extraction method] (#h; #tNFDI4PSO:0000054)</t>
+  </si>
+  <si>
+    <t>Extraction method</t>
+  </si>
+  <si>
+    <t>QIAGEN RNEasy</t>
+  </si>
+  <si>
+    <t>RIN: 8.1</t>
+  </si>
+  <si>
+    <t>RNA quality checked by PAGE</t>
+  </si>
+  <si>
+    <t>200 microliter</t>
+  </si>
+  <si>
+    <t>QIAGEN RNEasy Buffer 2</t>
+  </si>
+  <si>
+    <t>PCI method</t>
+  </si>
+  <si>
+    <t>phenol:chloroform:isopropanol</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>Not everyone uses a kit for extraction, better use NFDI4PSO:0000054</t>
+  </si>
+  <si>
+    <t>Term suggestion. Especially for the work with RNA it is important to check the quality after isolation</t>
+  </si>
+  <si>
+    <t>Unspecific. Justification</t>
   </si>
 </sst>
 </file>
@@ -104,7 +318,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,8 +334,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +405,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4FB3D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF377D98"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,10 +489,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,16 +507,84 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{87CB12D2-5D32-5344-BA63-4377B67E3763}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -224,32 +609,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76206DCD-B1F6-C24E-BAE1-D2FB91ABFB99}" name="annotationTable1" displayName="annotationTable1" ref="A2:W3" totalsRowShown="0">
-  <autoFilter ref="A2:W3" xr:uid="{832614FC-4AE4-BA4A-9BF7-BFA6BCCB799C}"/>
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{76206DCD-B1F6-C24E-BAE1-D2FB91ABFB99}" name="annotationTable1" displayName="annotationTable1" ref="C2:AB3" totalsRowShown="0">
+  <autoFilter ref="C2:AB3" xr:uid="{832614FC-4AE4-BA4A-9BF7-BFA6BCCB799C}"/>
+  <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{DECFF8D0-3CE7-FE4A-AE75-815E572E9742}" name="Source Name"/>
     <tableColumn id="2" xr3:uid="{C40C8FCE-0AA0-4049-8114-5B5645A6E93C}" name="Sample Name"/>
-    <tableColumn id="12" xr3:uid="{D487B3C2-FCC9-9748-9A8A-0D6A83AEB324}" name="Parameter [Bio entity]" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{D487B3C2-FCC9-9748-9A8A-0D6A83AEB324}" name="Parameter [Bio entity]" dataDxfId="5"/>
     <tableColumn id="13" xr3:uid="{4B0FE9CC-E2ED-AF4A-90D4-FAB6DBED33EE}" name="Term Source REF [Bio entity] (#h; #tNFDI4PSO:0000012)"/>
     <tableColumn id="14" xr3:uid="{522BBFA9-4A80-D745-87FE-9CAA1BAF6807}" name="Term Accession Number [Bio entity] (#h; #tNFDI4PSO:0000012)"/>
-    <tableColumn id="15" xr3:uid="{6607B5DF-7714-E943-8E91-48985930C54B}" name="Parameter [Biosource amount]" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{6607B5DF-7714-E943-8E91-48985930C54B}" name="Parameter [Biosource amount]" dataDxfId="4"/>
     <tableColumn id="16" xr3:uid="{78C0B04C-E73C-FB43-A41E-494193F7A48C}" name="Term Source REF [Biosource amount] (#h; #tNFDI4PSO:0000013)"/>
     <tableColumn id="17" xr3:uid="{2D769069-CC3A-EE43-BE2D-4B768EFAD693}" name="Term Accession Number [Biosource amount] (#h; #tNFDI4PSO:0000013)"/>
     <tableColumn id="21" xr3:uid="{8DC2DF91-CE94-E94A-A5B4-02752EE2C776}" name="Unit [milligram] (#h; #tUO:0000022; #u)"/>
     <tableColumn id="22" xr3:uid="{5D24ADED-ED35-9945-B1D3-AD774AF07057}" name="Term Source REF [milligram] (#h; #tUO:0000022; #u)"/>
     <tableColumn id="23" xr3:uid="{572598D7-894F-5149-8C6D-4A78BC6C27F2}" name="Term Accession Number [milligram] (#h; #tUO:0000022; #u)"/>
-    <tableColumn id="18" xr3:uid="{FFC95040-19C9-734F-A4E3-B5611916C3A4}" name="Parameter [Extraction Kit]" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{FEFD66AC-DF32-8141-95E1-36BD2B6F792C}" name="Term Source REF [Extraction Kit] (#h; #tNFDI4PSO:0000014)"/>
-    <tableColumn id="20" xr3:uid="{1149D66F-4ABD-6846-8CB4-4DC6BD6B8DC2}" name="Term Accession Number [Extraction Kit] (#h; #tNFDI4PSO:0000014)"/>
-    <tableColumn id="3" xr3:uid="{1BA7D7BD-0172-D24F-8453-ED3666AE07C6}" name="Parameter [Extraction buffer]" dataDxfId="1"/>
+    <tableColumn id="27" xr3:uid="{6DD43F96-68C7-9F46-AA28-FF019AE28E32}" name="Parameter [Extraction method]" dataDxfId="0"/>
+    <tableColumn id="28" xr3:uid="{8589F952-9A40-4740-B7E1-689AC1B8D556}" name="Term Source REF [Extraction method] (#h; #tNFDI4PSO:0000054)"/>
+    <tableColumn id="29" xr3:uid="{9B6545C5-8646-C346-9670-7BF418D3A464}" name="Term Accession Number [Extraction method] (#h; #tNFDI4PSO:0000054)"/>
+    <tableColumn id="3" xr3:uid="{1BA7D7BD-0172-D24F-8453-ED3666AE07C6}" name="Parameter [Extraction buffer]" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{5A08E2A9-B247-A349-8E06-07F3569AE22E}" name="Term Source REF [Extraction buffer] (#h; #tNFDI4PSO:0000050)"/>
     <tableColumn id="5" xr3:uid="{25876647-E95A-044B-9E30-DA15780D6980}" name="Term Accession Number [Extraction buffer] (#h; #tNFDI4PSO:0000050)"/>
-    <tableColumn id="6" xr3:uid="{D751E028-9AD1-2742-A18D-568661A5D639}" name="Parameter [Extraction buffer volume]" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{D751E028-9AD1-2742-A18D-568661A5D639}" name="Parameter [Extraction buffer volume]" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{08853ADC-69EB-484C-B596-6F5F8AAFBFA9}" name="Term Source REF [Extraction buffer volume] (#h; #tNFDI4PSO:0000051)"/>
     <tableColumn id="8" xr3:uid="{2F5A3FD0-B97E-3546-B233-668066642CFA}" name="Term Accession Number [Extraction buffer volume] (#h; #tNFDI4PSO:0000051)"/>
     <tableColumn id="9" xr3:uid="{818D6D68-D03E-E947-BFFB-4028187F6132}" name="Unit [microliter] (#h; #tUO:0000101; #u)"/>
     <tableColumn id="10" xr3:uid="{9027E325-ED31-A045-9A35-13FF444EB372}" name="Term Source REF [microliter] (#h; #tUO:0000101; #u)"/>
     <tableColumn id="11" xr3:uid="{3A8F4E34-DB64-FD49-BA49-A79AFA7B8080}" name="Term Accession Number [microliter] (#h; #tUO:0000101; #u)"/>
+    <tableColumn id="24" xr3:uid="{170502DC-2034-BE4F-A07D-2CC533AFDE12}" name="Parameter [RNA quality check]" dataDxfId="1"/>
+    <tableColumn id="25" xr3:uid="{F5394F2C-EF55-A94E-A480-050AB1AD2220}" name="Term Source REF [RNA quality check] (#h; #tNFDI4PSO:0000062)"/>
+    <tableColumn id="26" xr3:uid="{56148DFD-E337-AF4D-87A0-C65DA40472ED}" name="Term Accession Number [RNA quality check] (#h; #tNFDI4PSO:0000062)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -569,44 +957,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EEB8C5-4C05-AA46-9FA8-0D61FE068A75}">
-  <dimension ref="A1:W3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EEB8C5-4C05-AA46-9FA8-0D61FE068A75}">
+  <dimension ref="A1:AE69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.1640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="57.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.1640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="64.33203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="48.1640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="54.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="54.33203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="60.6640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="57.1640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="63.33203125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="64" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="70.1640625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="48.1640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="54.33203125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5" style="20" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.1640625" style="24" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="57.33203125" style="24" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58.1640625" style="24" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="64.33203125" style="24" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="37.33203125" style="24" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="48.1640625" style="24" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="54.33203125" style="24" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="29.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="58.5" style="24" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="64.6640625" style="24" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="28.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="57.1640625" style="24" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="63.33203125" style="24" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="35.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="64" style="24" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="70.1640625" style="24" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="37.33203125" style="24" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="48.1640625" style="24" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="54.33203125" style="24" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="29.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="58.33203125" style="24" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="64.5" style="24" hidden="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="1"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -626,91 +1022,1180 @@
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
-      <c r="W1" s="2"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="2"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="R2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="S2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="T2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="U2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
+      <c r="W2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="X2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Y2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Z2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" s="3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" s="5"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3" s="3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3" s="6"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C3" s="3"/>
-      <c r="F3" s="5"/>
-      <c r="L3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="R3" s="6"/>
+      <c r="B11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+    </row>
+    <row r="28" spans="1:28" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+    </row>
+    <row r="29" spans="1:28" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="42"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B30" s="21"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="33"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B31" s="21"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B32" s="21"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="21"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="22"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="22"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="22"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="22"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="22"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="22"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="22"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="22"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="22"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="22"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="22"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="22"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="22"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="22"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="22"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="22"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="22"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="22"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="22"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="22"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="22"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="22"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="22"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="22"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="22"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="22"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="23"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="22"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/templates/2EXT01_RNA/2EXT01_RNA.xlsx
+++ b/templates/2EXT01_RNA/2EXT01_RNA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/2EXT01_RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E323E448-EA30-9145-A8FE-1013341479AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA51E13-DBF0-224C-8C97-8F18116F51CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4720" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>Source Name</t>
   </si>
@@ -308,6 +308,15 @@
   </si>
   <si>
     <t>Unspecific. Justification</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>protocols.extract_protocol</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
@@ -493,7 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -571,6 +580,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,7 +971,7 @@
   <dimension ref="A1:AE69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1789,25 +1799,35 @@
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
+      <c r="H22" s="43" t="s">
+        <v>71</v>
+      </c>
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="N22" s="43" t="s">
+        <v>71</v>
+      </c>
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
+      <c r="Q22" s="43" t="s">
+        <v>71</v>
+      </c>
       <c r="R22" s="29"/>
       <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
+      <c r="T22" s="43" t="s">
+        <v>71</v>
+      </c>
       <c r="U22" s="29"/>
       <c r="V22" s="29"/>
       <c r="W22" s="29"/>
       <c r="X22" s="29"/>
       <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
+      <c r="Z22" s="43" t="s">
+        <v>71</v>
+      </c>
       <c r="AA22" s="29"/>
       <c r="AB22" s="29"/>
     </row>
@@ -1820,28 +1840,40 @@
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="E23" s="29" t="s">
+        <v>70</v>
+      </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
+      <c r="H23" s="29" t="s">
+        <v>72</v>
+      </c>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
+      <c r="N23" s="29" t="s">
+        <v>72</v>
+      </c>
       <c r="O23" s="29"/>
       <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
+      <c r="Q23" s="29" t="s">
+        <v>72</v>
+      </c>
       <c r="R23" s="29"/>
       <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
+      <c r="T23" s="29" t="s">
+        <v>72</v>
+      </c>
       <c r="U23" s="29"/>
       <c r="V23" s="29"/>
       <c r="W23" s="29"/>
       <c r="X23" s="29"/>
       <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
+      <c r="Z23" s="29" t="s">
+        <v>72</v>
+      </c>
       <c r="AA23" s="29"/>
       <c r="AB23" s="29"/>
     </row>

--- a/templates/2EXT01_RNA/2EXT01_RNA.xlsx
+++ b/templates/2EXT01_RNA/2EXT01_RNA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/2EXT01_RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA51E13-DBF0-224C-8C97-8F18116F51CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F6CDA9-2600-2144-B027-4113FB7E9700}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4720" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EEB8C5-4C05-AA46-9FA8-0D61FE068A75}">
   <dimension ref="A1:AE69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/templates/2EXT01_RNA/2EXT01_RNA.xlsx
+++ b/templates/2EXT01_RNA/2EXT01_RNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/2EXT01_RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F6CDA9-2600-2144-B027-4113FB7E9700}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A104DE94-657F-1D45-A286-CEFB951384C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4720" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-4720" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT01_RNA" sheetId="3" r:id="rId1"/>
@@ -190,9 +190,6 @@
     <t xml:space="preserve">Comment: </t>
   </si>
   <si>
-    <t>ER Pipeline: GEO - RNASeq - Plants</t>
-  </si>
-  <si>
     <t>ER target term</t>
   </si>
   <si>
@@ -317,6 +314,9 @@
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>ER GEO_RNASEQ</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -568,7 +568,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -591,10 +590,10 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -633,19 +632,19 @@
     <tableColumn id="21" xr3:uid="{8DC2DF91-CE94-E94A-A5B4-02752EE2C776}" name="Unit [milligram] (#h; #tUO:0000022; #u)"/>
     <tableColumn id="22" xr3:uid="{5D24ADED-ED35-9945-B1D3-AD774AF07057}" name="Term Source REF [milligram] (#h; #tUO:0000022; #u)"/>
     <tableColumn id="23" xr3:uid="{572598D7-894F-5149-8C6D-4A78BC6C27F2}" name="Term Accession Number [milligram] (#h; #tUO:0000022; #u)"/>
-    <tableColumn id="27" xr3:uid="{6DD43F96-68C7-9F46-AA28-FF019AE28E32}" name="Parameter [Extraction method]" dataDxfId="0"/>
+    <tableColumn id="27" xr3:uid="{6DD43F96-68C7-9F46-AA28-FF019AE28E32}" name="Parameter [Extraction method]" dataDxfId="3"/>
     <tableColumn id="28" xr3:uid="{8589F952-9A40-4740-B7E1-689AC1B8D556}" name="Term Source REF [Extraction method] (#h; #tNFDI4PSO:0000054)"/>
     <tableColumn id="29" xr3:uid="{9B6545C5-8646-C346-9670-7BF418D3A464}" name="Term Accession Number [Extraction method] (#h; #tNFDI4PSO:0000054)"/>
-    <tableColumn id="3" xr3:uid="{1BA7D7BD-0172-D24F-8453-ED3666AE07C6}" name="Parameter [Extraction buffer]" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{1BA7D7BD-0172-D24F-8453-ED3666AE07C6}" name="Parameter [Extraction buffer]" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{5A08E2A9-B247-A349-8E06-07F3569AE22E}" name="Term Source REF [Extraction buffer] (#h; #tNFDI4PSO:0000050)"/>
     <tableColumn id="5" xr3:uid="{25876647-E95A-044B-9E30-DA15780D6980}" name="Term Accession Number [Extraction buffer] (#h; #tNFDI4PSO:0000050)"/>
-    <tableColumn id="6" xr3:uid="{D751E028-9AD1-2742-A18D-568661A5D639}" name="Parameter [Extraction buffer volume]" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D751E028-9AD1-2742-A18D-568661A5D639}" name="Parameter [Extraction buffer volume]" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{08853ADC-69EB-484C-B596-6F5F8AAFBFA9}" name="Term Source REF [Extraction buffer volume] (#h; #tNFDI4PSO:0000051)"/>
     <tableColumn id="8" xr3:uid="{2F5A3FD0-B97E-3546-B233-668066642CFA}" name="Term Accession Number [Extraction buffer volume] (#h; #tNFDI4PSO:0000051)"/>
     <tableColumn id="9" xr3:uid="{818D6D68-D03E-E947-BFFB-4028187F6132}" name="Unit [microliter] (#h; #tUO:0000101; #u)"/>
     <tableColumn id="10" xr3:uid="{9027E325-ED31-A045-9A35-13FF444EB372}" name="Term Source REF [microliter] (#h; #tUO:0000101; #u)"/>
     <tableColumn id="11" xr3:uid="{3A8F4E34-DB64-FD49-BA49-A79AFA7B8080}" name="Term Accession Number [microliter] (#h; #tUO:0000101; #u)"/>
-    <tableColumn id="24" xr3:uid="{170502DC-2034-BE4F-A07D-2CC533AFDE12}" name="Parameter [RNA quality check]" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{170502DC-2034-BE4F-A07D-2CC533AFDE12}" name="Parameter [RNA quality check]" dataDxfId="0"/>
     <tableColumn id="25" xr3:uid="{F5394F2C-EF55-A94E-A480-050AB1AD2220}" name="Term Source REF [RNA quality check] (#h; #tNFDI4PSO:0000062)"/>
     <tableColumn id="26" xr3:uid="{56148DFD-E337-AF4D-87A0-C65DA40472ED}" name="Term Accession Number [RNA quality check] (#h; #tNFDI4PSO:0000062)"/>
   </tableColumns>
@@ -968,15 +967,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EEB8C5-4C05-AA46-9FA8-0D61FE068A75}">
-  <dimension ref="A1:AE69"/>
+  <dimension ref="A1:AB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.5" style="20" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="39.6640625" style="20" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="24" bestFit="1" customWidth="1"/>
@@ -1078,13 +1080,13 @@
         <v>10</v>
       </c>
       <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
         <v>55</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>56</v>
-      </c>
-      <c r="P2" t="s">
-        <v>57</v>
       </c>
       <c r="Q2" t="s">
         <v>11</v>
@@ -1114,13 +1116,13 @@
         <v>19</v>
       </c>
       <c r="Z2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>50</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -1193,7 +1195,7 @@
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
@@ -1204,17 +1206,17 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
       <c r="N5" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R5" s="26"/>
       <c r="S5" s="26"/>
       <c r="T5" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U5" s="26"/>
       <c r="V5" s="26"/>
@@ -1222,7 +1224,7 @@
       <c r="X5" s="26"/>
       <c r="Y5" s="26"/>
       <c r="Z5" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA5" s="26"/>
       <c r="AB5" s="26"/>
@@ -1235,7 +1237,7 @@
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
@@ -1246,12 +1248,12 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R6" s="26"/>
       <c r="S6" s="26"/>
@@ -1262,7 +1264,7 @@
       <c r="X6" s="26"/>
       <c r="Y6" s="26"/>
       <c r="Z6" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA6" s="26"/>
       <c r="AB6" s="26"/>
@@ -1275,7 +1277,7 @@
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -1309,7 +1311,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -1407,12 +1409,12 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
@@ -1420,17 +1422,17 @@
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
       <c r="N11" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
       <c r="T11" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U11" s="27"/>
       <c r="V11" s="27"/>
@@ -1438,7 +1440,7 @@
       <c r="X11" s="27"/>
       <c r="Y11" s="27"/>
       <c r="Z11" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA11" s="27"/>
       <c r="AB11" s="27"/>
@@ -1453,12 +1455,12 @@
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
@@ -1466,17 +1468,17 @@
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
       <c r="N12" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R12" s="28"/>
       <c r="S12" s="28"/>
       <c r="T12" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U12" s="28"/>
       <c r="V12" s="28"/>
@@ -1484,7 +1486,7 @@
       <c r="X12" s="28"/>
       <c r="Y12" s="28"/>
       <c r="Z12" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA12" s="28"/>
       <c r="AB12" s="28"/>
@@ -1789,64 +1791,64 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
-      <c r="H22" s="43" t="s">
-        <v>71</v>
+      <c r="H22" s="42" t="s">
+        <v>70</v>
       </c>
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
-      <c r="N22" s="43" t="s">
-        <v>71</v>
+      <c r="N22" s="42" t="s">
+        <v>70</v>
       </c>
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
-      <c r="Q22" s="43" t="s">
-        <v>71</v>
+      <c r="Q22" s="42" t="s">
+        <v>70</v>
       </c>
       <c r="R22" s="29"/>
       <c r="S22" s="29"/>
-      <c r="T22" s="43" t="s">
-        <v>71</v>
+      <c r="T22" s="42" t="s">
+        <v>70</v>
       </c>
       <c r="U22" s="29"/>
       <c r="V22" s="29"/>
       <c r="W22" s="29"/>
       <c r="X22" s="29"/>
       <c r="Y22" s="29"/>
-      <c r="Z22" s="43" t="s">
-        <v>71</v>
+      <c r="Z22" s="42" t="s">
+        <v>70</v>
       </c>
       <c r="AA22" s="29"/>
       <c r="AB22" s="29"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
@@ -1854,17 +1856,17 @@
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
       <c r="N23" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="29"/>
       <c r="P23" s="29"/>
       <c r="Q23" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R23" s="29"/>
       <c r="S23" s="29"/>
       <c r="T23" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U23" s="29"/>
       <c r="V23" s="29"/>
@@ -1872,17 +1874,17 @@
       <c r="X23" s="29"/>
       <c r="Y23" s="29"/>
       <c r="Z23" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA23" s="29"/>
       <c r="AB23" s="29"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
@@ -1913,10 +1915,10 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
@@ -1947,10 +1949,10 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
@@ -1981,10 +1983,10 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
@@ -2013,75 +2015,75 @@
       <c r="AA27" s="29"/>
       <c r="AB27" s="29"/>
     </row>
-    <row r="28" spans="1:28" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="36" t="s">
+    <row r="28" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="39" t="s">
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-    </row>
-    <row r="29" spans="1:28" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="42"/>
-      <c r="AB29" s="42"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+    </row>
+    <row r="29" spans="1:28" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="41"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B30" s="21"/>

--- a/templates/2EXT01_RNA/2EXT01_RNA.xlsx
+++ b/templates/2EXT01_RNA/2EXT01_RNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/2EXT01_RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A104DE94-657F-1D45-A286-CEFB951384C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7087F7F2-B539-F94F-9ED7-21DDAB335B3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4720" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="16800" yWindow="-21100" windowWidth="16900" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT01_RNA" sheetId="3" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>Source Name</t>
   </si>
@@ -317,6 +317,15 @@
   </si>
   <si>
     <t>ER GEO_RNASEQ</t>
+  </si>
+  <si>
+    <t>related to http://purl.obolibrary.org/obo/OBI_0302884</t>
+  </si>
+  <si>
+    <t>Ontology</t>
+  </si>
+  <si>
+    <t>Unit: microgram</t>
   </si>
 </sst>
 </file>
@@ -404,7 +413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,8 +468,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -497,12 +512,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -580,6 +604,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,10 +996,10 @@
   <dimension ref="A1:AB69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1602,10 +1628,14 @@
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
+      <c r="E16" s="31" t="s">
+        <v>74</v>
+      </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="H16" s="31" t="s">
+        <v>75</v>
+      </c>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
@@ -1648,10 +1678,14 @@
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
+      <c r="Q17" s="44" t="s">
+        <v>73</v>
+      </c>
       <c r="R17" s="29"/>
       <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
+      <c r="T17" s="43" t="s">
+        <v>73</v>
+      </c>
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>

--- a/templates/2EXT01_RNA/2EXT01_RNA.xlsx
+++ b/templates/2EXT01_RNA/2EXT01_RNA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/2EXT01_RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BCC8BF-6C56-754A-955F-AA7893680F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776E2BBA-D2F3-3B49-8DAE-7854A514061F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4720" yWindow="-21100" windowWidth="39240" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
   <si>
     <t>Source Name</t>
   </si>
@@ -195,12 +195,6 @@
     <t>Review comments</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>protocols.extract_protocol</t>
-  </si>
-  <si>
     <t>o</t>
   </si>
   <si>
@@ -299,6 +293,33 @@
   </si>
   <si>
     <t>Comments towards the original template author</t>
+  </si>
+  <si>
+    <t>PROTOCOLS_extract protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe the protocols used to extract and prepare the material to be sequenced. </t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>at least some info is required, but not all terms</t>
+  </si>
+  <si>
+    <t>SAMPLES_molecule</t>
+  </si>
+  <si>
+    <t>Type of molecule that was extracted from the biological material. Include one of the following: total RNA, polyA RNA, cytoplasmic RNA, nuclear RNA, genomic DNA, protein, or other.</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>Include one of the following: total RNA, polyA RNA, cytoplasmic RNA, nuclear RNA, genomic DNA, protein, or other.</t>
   </si>
 </sst>
 </file>
@@ -466,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -527,7 +548,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -967,7 +987,7 @@
       <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1006,11 +1026,11 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31" t="s">
-        <v>64</v>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="4"/>
@@ -1041,7 +1061,7 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1126,7 +1146,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1190,7 +1210,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1233,7 +1253,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1274,7 +1294,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1309,7 +1329,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1344,7 +1364,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1377,7 +1397,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1441,13 +1461,13 @@
     </row>
     <row r="12" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>67</v>
+      <c r="C12" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -1490,13 +1510,13 @@
     </row>
     <row r="13" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>68</v>
+      <c r="C13" s="32" t="s">
+        <v>66</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1539,13 +1559,13 @@
     </row>
     <row r="14" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>70</v>
+      <c r="C14" s="33" t="s">
+        <v>68</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -1576,23 +1596,23 @@
     </row>
     <row r="15" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>71</v>
+      <c r="C15" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -1617,13 +1637,13 @@
     </row>
     <row r="16" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>73</v>
+      <c r="C16" s="36" t="s">
+        <v>71</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="21"/>
@@ -1654,12 +1674,12 @@
     </row>
     <row r="17" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="38"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="23"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -1689,13 +1709,13 @@
     </row>
     <row r="18" spans="1:16382" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
-      <c r="C18" s="39" t="s">
-        <v>77</v>
+      <c r="C18" s="38" t="s">
+        <v>75</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
@@ -1726,13 +1746,13 @@
     </row>
     <row r="19" spans="1:16382" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>77</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -1763,12 +1783,12 @@
     </row>
     <row r="20" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -1784,12 +1804,12 @@
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S20" s="23"/>
       <c r="T20" s="23"/>
       <c r="U20" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V20" s="23"/>
       <c r="W20" s="23"/>
@@ -1802,12 +1822,12 @@
     </row>
     <row r="21" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
-      <c r="C21" s="38"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -1867,9 +1887,9 @@
       <c r="AC22" s="24"/>
     </row>
     <row r="23" spans="1:16382" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -1898,221 +1918,259 @@
       <c r="AC23" s="24"/>
     </row>
     <row r="24" spans="1:16382" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
-        <v>59</v>
+      <c r="A24" s="45" t="s">
+        <v>57</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="37" t="s">
-        <v>81</v>
+      <c r="C24" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="30" t="s">
-        <v>57</v>
+      <c r="F24" t="s">
+        <v>92</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="30" t="s">
-        <v>57</v>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24" t="s">
+        <v>88</v>
       </c>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="30" t="s">
-        <v>57</v>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24" t="s">
+        <v>88</v>
       </c>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="30" t="s">
-        <v>57</v>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24" t="s">
+        <v>88</v>
       </c>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="30" t="s">
-        <v>57</v>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24" t="s">
+        <v>88</v>
+      </c>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24" t="s">
+        <v>88</v>
       </c>
       <c r="AB24" s="21"/>
       <c r="AC24" s="21"/>
     </row>
     <row r="25" spans="1:16382" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
-        <v>59</v>
+      <c r="A25" s="45" t="s">
+        <v>57</v>
       </c>
-      <c r="B25" s="42" t="s">
-        <v>82</v>
+      <c r="B25" s="41" t="s">
+        <v>80</v>
       </c>
-      <c r="C25" s="43" t="s">
-        <v>83</v>
+      <c r="C25" s="42" t="s">
+        <v>81</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25" t="s">
+        <v>89</v>
+      </c>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25" t="s">
+        <v>89</v>
+      </c>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25" t="s">
+        <v>89</v>
+      </c>
       <c r="AB25" s="21"/>
       <c r="AC25" s="21"/>
     </row>
     <row r="26" spans="1:16382" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="46" t="s">
-        <v>59</v>
+      <c r="A26" s="45" t="s">
+        <v>57</v>
       </c>
-      <c r="B26" s="42" t="s">
-        <v>84</v>
+      <c r="B26" s="41" t="s">
+        <v>82</v>
       </c>
-      <c r="C26" s="43" t="s">
-        <v>85</v>
+      <c r="C26" s="42" t="s">
+        <v>83</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="21" t="s">
+      <c r="F26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21" t="s">
-        <v>58</v>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26" t="s">
+        <v>56</v>
       </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21" t="s">
-        <v>58</v>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26" t="s">
+        <v>56</v>
       </c>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21" t="s">
-        <v>58</v>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26" t="s">
+        <v>56</v>
       </c>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21" t="s">
-        <v>58</v>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26" t="s">
+        <v>56</v>
       </c>
       <c r="AB26" s="21"/>
       <c r="AC26" s="21"/>
     </row>
     <row r="27" spans="1:16382" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="46" t="s">
-        <v>59</v>
+      <c r="A27" s="45" t="s">
+        <v>57</v>
       </c>
-      <c r="B27" s="42" t="s">
-        <v>86</v>
+      <c r="B27" s="41" t="s">
+        <v>84</v>
       </c>
-      <c r="C27" s="43" t="s">
-        <v>87</v>
+      <c r="C27" s="42" t="s">
+        <v>85</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
+      <c r="F27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27" t="s">
+        <v>90</v>
+      </c>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27" t="s">
+        <v>90</v>
+      </c>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27" t="s">
+        <v>90</v>
+      </c>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27" t="s">
+        <v>90</v>
+      </c>
       <c r="AB27" s="21"/>
       <c r="AC27" s="21"/>
     </row>
     <row r="28" spans="1:16382" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
-        <v>59</v>
+      <c r="A28" s="45" t="s">
+        <v>57</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="37" t="s">
-        <v>88</v>
+      <c r="C28" s="36" t="s">
+        <v>86</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28" t="s">
+        <v>91</v>
+      </c>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28" t="s">
+        <v>91</v>
+      </c>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28" t="s">
+        <v>91</v>
+      </c>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28" t="s">
+        <v>91</v>
+      </c>
       <c r="AB28" s="21"/>
       <c r="AC28" s="21"/>
     </row>
     <row r="29" spans="1:16382" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="46" t="s">
-        <v>59</v>
+      <c r="A29" s="45" t="s">
+        <v>57</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="37" t="s">
-        <v>89</v>
+      <c r="C29" s="36" t="s">
+        <v>87</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -18495,9 +18553,9 @@
       <c r="XFB29" s="28"/>
     </row>
     <row r="30" spans="1:16382" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>

--- a/templates/2EXT01_RNA/2EXT01_RNA.xlsx
+++ b/templates/2EXT01_RNA/2EXT01_RNA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/2EXT01_RNA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\2EXT01_RNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776E2BBA-D2F3-3B49-8DAE-7854A514061F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDC9B7E-89E2-49D8-A7D9-C4472F5C5A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4720" yWindow="-21100" windowWidth="39240" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT01_RNA" sheetId="3" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
   <si>
     <t>Source Name</t>
   </si>
@@ -321,6 +330,24 @@
   <si>
     <t>Include one of the following: total RNA, polyA RNA, cytoplasmic RNA, nuclear RNA, genomic DNA, protein, or other.</t>
   </si>
+  <si>
+    <t>The name of the output of this assay</t>
+  </si>
+  <si>
+    <t>User instruction missing</t>
+  </si>
+  <si>
+    <t>Do we want to give a unit? If yes, which one?</t>
+  </si>
+  <si>
+    <t>The buffer used to extract the substance from the sample.</t>
+  </si>
+  <si>
+    <t>The amount of extraction buffer applied.</t>
+  </si>
+  <si>
+    <t>The name of the input (the source) of this assay.</t>
+  </si>
 </sst>
 </file>
 
@@ -401,7 +428,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,6 +468,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,7 +520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -594,10 +627,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{87CB12D2-5D32-5344-BA63-4377B67E3763}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -667,7 +711,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -983,48 +1027,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EEB8C5-4C05-AA46-9FA8-0D61FE068A75}">
   <dimension ref="A1:XFB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24:F28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="54.6640625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.1640625" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="57.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="37.875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="54.625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.125" style="16" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="57.375" style="16" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="58.1640625" style="16" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="64.33203125" style="16" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="37.33203125" style="16" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="48.1640625" style="16" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="54.33203125" style="16" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="29.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.125" style="16" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="64.375" style="16" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="37.375" style="16" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="48.125" style="16" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="54.375" style="16" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="29.875" style="16" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="58.5" style="16" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="64.6640625" style="16" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="28.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="57.1640625" style="16" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="63.33203125" style="16" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="35.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="64.625" style="16" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="28.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="57.125" style="16" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="63.375" style="16" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="35.375" style="16" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="64" style="16" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="70.1640625" style="16" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="37.33203125" style="16" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="48.1640625" style="16" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="54.33203125" style="16" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="29.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="58.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="70.125" style="16" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="37.375" style="16" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="48.125" style="16" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="54.375" style="16" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="29.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="58.375" style="16" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="64.5" style="16" hidden="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="16"/>
+    <col min="30" max="16384" width="10.875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
@@ -1059,7 +1103,7 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
@@ -1144,7 +1188,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>61</v>
       </c>
@@ -1177,7 +1221,7 @@
       <c r="AB3"/>
       <c r="AC3"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1208,7 +1252,7 @@
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>63</v>
       </c>
@@ -1251,7 +1295,7 @@
       <c r="AB5" s="18"/>
       <c r="AC5" s="18"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
@@ -1292,7 +1336,7 @@
       <c r="AB6" s="18"/>
       <c r="AC6" s="18"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>63</v>
       </c>
@@ -1327,7 +1371,7 @@
       <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>63</v>
       </c>
@@ -1362,7 +1406,7 @@
       <c r="AB8" s="18"/>
       <c r="AC8" s="18"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>63</v>
       </c>
@@ -1395,7 +1439,7 @@
       <c r="AB9" s="18"/>
       <c r="AC9" s="18"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>63</v>
       </c>
@@ -1428,7 +1472,7 @@
       <c r="AB10" s="18"/>
       <c r="AC10" s="18"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1459,7 +1503,7 @@
       <c r="AB11" s="17"/>
       <c r="AC11" s="17"/>
     </row>
-    <row r="12" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>64</v>
       </c>
@@ -1508,7 +1552,7 @@
       <c r="AB12" s="19"/>
       <c r="AC12" s="19"/>
     </row>
-    <row r="13" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>64</v>
       </c>
@@ -1557,7 +1601,7 @@
       <c r="AB13" s="20"/>
       <c r="AC13" s="20"/>
     </row>
-    <row r="14" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>64</v>
       </c>
@@ -1594,7 +1638,7 @@
       <c r="AB14" s="21"/>
       <c r="AC14" s="21"/>
     </row>
-    <row r="15" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>64</v>
       </c>
@@ -1635,7 +1679,7 @@
       <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
     </row>
-    <row r="16" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>70</v>
       </c>
@@ -1645,8 +1689,12 @@
       <c r="C16" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>97</v>
+      </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -1659,10 +1707,14 @@
       <c r="O16" s="21"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
-      <c r="R16" s="23"/>
+      <c r="R16" s="49" t="s">
+        <v>100</v>
+      </c>
       <c r="S16" s="23"/>
       <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
+      <c r="U16" s="48" t="s">
+        <v>101</v>
+      </c>
       <c r="V16" s="23"/>
       <c r="W16" s="23"/>
       <c r="X16" s="23"/>
@@ -1672,7 +1724,7 @@
       <c r="AB16" s="22"/>
       <c r="AC16" s="22"/>
     </row>
-    <row r="17" spans="1:16382" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>70</v>
       </c>
@@ -1707,7 +1759,7 @@
       <c r="AB17" s="23"/>
       <c r="AC17" s="23"/>
     </row>
-    <row r="18" spans="1:16382" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>73</v>
       </c>
@@ -1744,7 +1796,7 @@
       <c r="AB18" s="21"/>
       <c r="AC18" s="21"/>
     </row>
-    <row r="19" spans="1:16382" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>73</v>
       </c>
@@ -1781,7 +1833,7 @@
       <c r="AB19" s="21"/>
       <c r="AC19" s="21"/>
     </row>
-    <row r="20" spans="1:16382" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>73</v>
       </c>
@@ -1820,7 +1872,7 @@
       <c r="AB20" s="21"/>
       <c r="AC20" s="21"/>
     </row>
-    <row r="21" spans="1:16382" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>73</v>
       </c>
@@ -1830,32 +1882,42 @@
       <c r="C21" s="37"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="47" t="s">
+        <v>98</v>
+      </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="I21" s="47" t="s">
+        <v>98</v>
+      </c>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
+      <c r="O21" s="47" t="s">
+        <v>98</v>
+      </c>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
+      <c r="U21" s="50" t="s">
+        <v>99</v>
+      </c>
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
       <c r="X21" s="21"/>
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
+      <c r="AA21" s="47" t="s">
+        <v>98</v>
+      </c>
       <c r="AB21" s="21"/>
       <c r="AC21" s="21"/>
     </row>
-    <row r="22" spans="1:16382" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16382" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -1886,7 +1948,7 @@
       <c r="AB22" s="24"/>
       <c r="AC22" s="24"/>
     </row>
-    <row r="23" spans="1:16382" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16382" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -1917,7 +1979,7 @@
       <c r="AB23" s="24"/>
       <c r="AC23" s="24"/>
     </row>
-    <row r="24" spans="1:16382" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16382" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>57</v>
       </c>
@@ -1966,7 +2028,7 @@
       <c r="AB24" s="21"/>
       <c r="AC24" s="21"/>
     </row>
-    <row r="25" spans="1:16382" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16382" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>57</v>
       </c>
@@ -2015,7 +2077,7 @@
       <c r="AB25" s="21"/>
       <c r="AC25" s="21"/>
     </row>
-    <row r="26" spans="1:16382" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16382" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>57</v>
       </c>
@@ -2064,7 +2126,7 @@
       <c r="AB26" s="21"/>
       <c r="AC26" s="21"/>
     </row>
-    <row r="27" spans="1:16382" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16382" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>57</v>
       </c>
@@ -2113,7 +2175,7 @@
       <c r="AB27" s="21"/>
       <c r="AC27" s="21"/>
     </row>
-    <row r="28" spans="1:16382" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16382" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
         <v>57</v>
       </c>
@@ -2162,7 +2224,7 @@
       <c r="AB28" s="21"/>
       <c r="AC28" s="21"/>
     </row>
-    <row r="29" spans="1:16382" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16382" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
         <v>57</v>
       </c>
@@ -18552,7 +18614,7 @@
       <c r="XFA29" s="28"/>
       <c r="XFB29" s="28"/>
     </row>
-    <row r="30" spans="1:16382" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16382" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -18583,7 +18645,7 @@
       <c r="AB30" s="29"/>
       <c r="AC30" s="29"/>
     </row>
-    <row r="31" spans="1:16382" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16382" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -34967,7 +35029,7 @@
       <c r="XFA31" s="16"/>
       <c r="XFB31" s="16"/>
     </row>
-    <row r="32" spans="1:16382" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16382" x14ac:dyDescent="0.25">
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="26"/>

--- a/templates/2EXT01_RNA/2EXT01_RNA.xlsx
+++ b/templates/2EXT01_RNA/2EXT01_RNA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\2EXT01_RNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDC9B7E-89E2-49D8-A7D9-C4472F5C5A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94206B08-20E8-4542-BDB4-5C4530E69ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
@@ -1007,7 +1007,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="646" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1031,7 +1031,7 @@
       <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/templates/2EXT01_RNA/2EXT01_RNA.xlsx
+++ b/templates/2EXT01_RNA/2EXT01_RNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\2EXT01_RNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94206B08-20E8-4542-BDB4-5C4530E69ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EDAEEC-025D-45D3-ACCB-0F6D3EBC8F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT01_RNA" sheetId="3" r:id="rId1"/>
@@ -1007,7 +1007,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="646" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="589" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1028,10 +1028,10 @@
   <dimension ref="A1:XFB32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="22" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -35065,21 +35065,22 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTable1" Worksheet="2EXT01_RNA">
-    <TableValidation DateTime="2021-03-12 14:48" SwateVersion="0.4.0" TableName="annotationTable1" Userlist="" WorksheetName="2EXT01_RNA">
+    <TableValidation DateTime="2021-08-09 09:57" SwateVersion="0.4.7" TableName="annotationTable1" Userlist="" WorksheetName="2EXT01_RNA">
       <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="2" ColumnHeader="Parameter [Bio entity]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Bio entity"/>
       <ColumnValidation ColumnAdress="5" ColumnHeader="Parameter [Biosource amount]" Importance="4" Unit="milligram" ValidationFormat="UnitTerm milligram"/>
-      <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Extraction Kit]" Importance="4" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Extraction method]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Extraction buffer]" Importance="4" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="17" ColumnHeader="Parameter [Extraction buffer volume]" Importance="4" Unit="microliter" ValidationFormat="UnitTerm microliter"/>
+      <ColumnValidation ColumnAdress="23" ColumnHeader="Parameter [RNA quality check]" Importance="None" Unit="None" ValidationFormat="None"/>
     </TableValidation>
   </SwateTable>
 </customXml>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C44CF77C-EAFF-5141-BDAC-352B7E3BD96E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78E1A287-D36C-44F2-81B0-ACF9A3896B90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/2EXT01_RNA/2EXT01_RNA.xlsx
+++ b/templates/2EXT01_RNA/2EXT01_RNA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\2EXT01_RNA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/2EXT01_RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EDAEEC-025D-45D3-ACCB-0F6D3EBC8F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5414CFEB-A2A4-344F-8D00-3A79F6C181C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-24600" yWindow="-20880" windowWidth="35760" windowHeight="18640" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT01_RNA" sheetId="3" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
   <si>
     <t>Source Name</t>
   </si>
@@ -334,12 +325,6 @@
     <t>The name of the output of this assay</t>
   </si>
   <si>
-    <t>User instruction missing</t>
-  </si>
-  <si>
-    <t>Do we want to give a unit? If yes, which one?</t>
-  </si>
-  <si>
     <t>The buffer used to extract the substance from the sample.</t>
   </si>
   <si>
@@ -347,6 +332,21 @@
   </si>
   <si>
     <t>The name of the input (the source) of this assay.</t>
+  </si>
+  <si>
+    <t>Unit: Microliter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name the method used for extraction (e.g. title and literature reference or commercial kit) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill the name and / or result of the method used to check the RNA quality. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The amount of material (e.g. plant tissue) used during extraction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name the biological molecule extracted and measured in this assay. </t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -635,13 +635,12 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{87CB12D2-5D32-5344-BA63-4377B67E3763}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -711,7 +710,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1007,7 +1006,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="589" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1028,47 +1027,47 @@
   <dimension ref="A1:XFB32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="22" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="22" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="54.625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.125" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="57.375" style="16" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="29.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="58.125" style="16" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="64.375" style="16" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="37.375" style="16" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="48.125" style="16" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="54.375" style="16" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="29.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="54.6640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="154.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.1640625" style="16" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="57.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="69.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.1640625" style="16" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="64.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="37.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="48.1640625" style="16" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="54.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="78" style="16" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="58.5" style="16" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="64.625" style="16" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="28.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="57.125" style="16" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="63.375" style="16" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="35.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="64.6640625" style="16" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="69.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="57.1640625" style="16" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="63.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="69.6640625" style="16" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="64" style="16" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="70.125" style="16" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="37.375" style="16" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="48.125" style="16" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="54.375" style="16" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="29.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="58.375" style="16" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="70.1640625" style="16" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="37.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="48.1640625" style="16" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="54.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="69.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="58.33203125" style="16" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="64.5" style="16" hidden="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.875" style="16"/>
+    <col min="30" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
@@ -1103,7 +1102,7 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
@@ -1188,7 +1187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>61</v>
       </c>
@@ -1221,7 +1220,7 @@
       <c r="AB3"/>
       <c r="AC3"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1252,7 +1251,7 @@
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>63</v>
       </c>
@@ -1295,7 +1294,7 @@
       <c r="AB5" s="18"/>
       <c r="AC5" s="18"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
@@ -1336,7 +1335,7 @@
       <c r="AB6" s="18"/>
       <c r="AC6" s="18"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>63</v>
       </c>
@@ -1371,7 +1370,7 @@
       <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>63</v>
       </c>
@@ -1406,7 +1405,7 @@
       <c r="AB8" s="18"/>
       <c r="AC8" s="18"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>63</v>
       </c>
@@ -1439,7 +1438,7 @@
       <c r="AB9" s="18"/>
       <c r="AC9" s="18"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>63</v>
       </c>
@@ -1472,7 +1471,7 @@
       <c r="AB10" s="18"/>
       <c r="AC10" s="18"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1503,7 +1502,7 @@
       <c r="AB11" s="17"/>
       <c r="AC11" s="17"/>
     </row>
-    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>64</v>
       </c>
@@ -1552,7 +1551,7 @@
       <c r="AB12" s="19"/>
       <c r="AC12" s="19"/>
     </row>
-    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>64</v>
       </c>
@@ -1601,7 +1600,7 @@
       <c r="AB13" s="20"/>
       <c r="AC13" s="20"/>
     </row>
-    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>64</v>
       </c>
@@ -1638,7 +1637,7 @@
       <c r="AB14" s="21"/>
       <c r="AC14" s="21"/>
     </row>
-    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>64</v>
       </c>
@@ -1669,7 +1668,9 @@
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
+      <c r="U15" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
       <c r="X15" s="21"/>
@@ -1679,7 +1680,7 @@
       <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
     </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>70</v>
       </c>
@@ -1690,41 +1691,49 @@
         <v>71</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E16" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
+      <c r="F16" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47" t="s">
+        <v>102</v>
+      </c>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
       <c r="R16" s="49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S16" s="23"/>
       <c r="T16" s="23"/>
       <c r="U16" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V16" s="23"/>
       <c r="W16" s="23"/>
       <c r="X16" s="23"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
+      <c r="AA16" s="48" t="s">
+        <v>103</v>
+      </c>
       <c r="AB16" s="22"/>
       <c r="AC16" s="22"/>
     </row>
-    <row r="17" spans="1:16382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>70</v>
       </c>
@@ -1759,7 +1768,7 @@
       <c r="AB17" s="23"/>
       <c r="AC17" s="23"/>
     </row>
-    <row r="18" spans="1:16382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>73</v>
       </c>
@@ -1796,7 +1805,7 @@
       <c r="AB18" s="21"/>
       <c r="AC18" s="21"/>
     </row>
-    <row r="19" spans="1:16382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>73</v>
       </c>
@@ -1833,7 +1842,7 @@
       <c r="AB19" s="21"/>
       <c r="AC19" s="21"/>
     </row>
-    <row r="20" spans="1:16382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>73</v>
       </c>
@@ -1872,7 +1881,7 @@
       <c r="AB20" s="21"/>
       <c r="AC20" s="21"/>
     </row>
-    <row r="21" spans="1:16382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>73</v>
       </c>
@@ -1882,42 +1891,32 @@
       <c r="C21" s="37"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="47" t="s">
-        <v>98</v>
-      </c>
+      <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="47" t="s">
-        <v>98</v>
-      </c>
+      <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
-      <c r="O21" s="47" t="s">
-        <v>98</v>
-      </c>
+      <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="47" t="s">
-        <v>98</v>
-      </c>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
       <c r="AB21" s="21"/>
       <c r="AC21" s="21"/>
     </row>
-    <row r="22" spans="1:16382" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -1948,7 +1947,7 @@
       <c r="AB22" s="24"/>
       <c r="AC22" s="24"/>
     </row>
-    <row r="23" spans="1:16382" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -1979,7 +1978,7 @@
       <c r="AB23" s="24"/>
       <c r="AC23" s="24"/>
     </row>
-    <row r="24" spans="1:16382" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16382" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
         <v>57</v>
       </c>
@@ -2028,7 +2027,7 @@
       <c r="AB24" s="21"/>
       <c r="AC24" s="21"/>
     </row>
-    <row r="25" spans="1:16382" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16382" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="45" t="s">
         <v>57</v>
       </c>
@@ -2040,7 +2039,7 @@
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
-      <c r="F25" t="s">
+      <c r="F25" s="50" t="s">
         <v>93</v>
       </c>
       <c r="G25"/>
@@ -2077,7 +2076,7 @@
       <c r="AB25" s="21"/>
       <c r="AC25" s="21"/>
     </row>
-    <row r="26" spans="1:16382" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16382" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="45" t="s">
         <v>57</v>
       </c>
@@ -2126,7 +2125,7 @@
       <c r="AB26" s="21"/>
       <c r="AC26" s="21"/>
     </row>
-    <row r="27" spans="1:16382" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16382" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="45" t="s">
         <v>57</v>
       </c>
@@ -2138,7 +2137,7 @@
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
-      <c r="F27" t="s">
+      <c r="F27" s="51" t="s">
         <v>95</v>
       </c>
       <c r="G27"/>
@@ -2175,7 +2174,7 @@
       <c r="AB27" s="21"/>
       <c r="AC27" s="21"/>
     </row>
-    <row r="28" spans="1:16382" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16382" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="45" t="s">
         <v>57</v>
       </c>
@@ -2224,7 +2223,7 @@
       <c r="AB28" s="21"/>
       <c r="AC28" s="21"/>
     </row>
-    <row r="29" spans="1:16382" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16382" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="45" t="s">
         <v>57</v>
       </c>
@@ -18614,7 +18613,7 @@
       <c r="XFA29" s="28"/>
       <c r="XFB29" s="28"/>
     </row>
-    <row r="30" spans="1:16382" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16382" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -18645,7 +18644,7 @@
       <c r="AB30" s="29"/>
       <c r="AC30" s="29"/>
     </row>
-    <row r="31" spans="1:16382" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16382" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -35029,7 +35028,7 @@
       <c r="XFA31" s="16"/>
       <c r="XFB31" s="16"/>
     </row>
-    <row r="32" spans="1:16382" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16382" x14ac:dyDescent="0.2">
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="26"/>

--- a/templates/2EXT01_RNA/2EXT01_RNA.xlsx
+++ b/templates/2EXT01_RNA/2EXT01_RNA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/2EXT01_RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458E19B2-B9CA-3345-A902-CAD04CA30D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9C514B-7D8B-8343-AFEB-6B07CA63D8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>ER target term</t>
-  </si>
-  <si>
-    <t>Additional information</t>
   </si>
   <si>
     <t>User instruction</t>
@@ -347,6 +344,9 @@
   </si>
   <si>
     <t>SWATE templating version (August 18, 2021)</t>
+  </si>
+  <si>
+    <t>ER Additional information</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1050,7 @@
       <pane xSplit="3" ySplit="24" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1089,11 +1089,11 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="4"/>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1162,13 +1162,13 @@
         <v>10</v>
       </c>
       <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
         <v>44</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>45</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>46</v>
       </c>
       <c r="R2" t="s">
         <v>11</v>
@@ -1198,18 +1198,18 @@
         <v>19</v>
       </c>
       <c r="AA2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>39</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1273,14 +1273,14 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -1291,17 +1291,17 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
       <c r="O5" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
       <c r="U5" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
@@ -1309,21 +1309,21 @@
       <c r="Y5" s="18"/>
       <c r="Z5" s="18"/>
       <c r="AA5" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="18"/>
       <c r="AC5" s="18"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -1334,12 +1334,12 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
@@ -1350,21 +1350,21 @@
       <c r="Y6" s="18"/>
       <c r="Z6" s="18"/>
       <c r="AA6" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB6" s="18"/>
       <c r="AC6" s="18"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -1392,14 +1392,14 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1524,23 +1524,23 @@
     </row>
     <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
@@ -1548,17 +1548,17 @@
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
       <c r="O12" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
@@ -1566,30 +1566,30 @@
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
       <c r="AA12" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB12" s="19"/>
       <c r="AC12" s="19"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
@@ -1597,17 +1597,17 @@
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -1615,20 +1615,20 @@
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB13" s="20"/>
       <c r="AC13" s="20"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -1659,23 +1659,23 @@
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -1689,7 +1689,7 @@
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
       <c r="U15" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -1702,23 +1702,23 @@
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G16" s="46"/>
       <c r="H16" s="46"/>
       <c r="I16" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J16" s="46"/>
       <c r="K16" s="46"/>
@@ -1726,17 +1726,17 @@
       <c r="M16" s="46"/>
       <c r="N16" s="46"/>
       <c r="O16" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
       <c r="R16" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S16" s="23"/>
       <c r="T16" s="23"/>
       <c r="U16" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V16" s="23"/>
       <c r="W16" s="23"/>
@@ -1744,17 +1744,17 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="23"/>
       <c r="AA16" s="47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB16" s="22"/>
       <c r="AC16" s="22"/>
     </row>
     <row r="17" spans="1:16382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="23"/>
@@ -1786,13 +1786,13 @@
     </row>
     <row r="18" spans="1:16382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="38" t="s">
         <v>72</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>73</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
@@ -1823,13 +1823,13 @@
     </row>
     <row r="19" spans="1:16382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -1860,13 +1860,13 @@
     </row>
     <row r="20" spans="1:16382" s="51" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
@@ -1997,13 +1997,13 @@
     </row>
     <row r="21" spans="1:16382" s="51" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="50"/>
       <c r="E21" s="50"/>
@@ -2134,10 +2134,10 @@
     </row>
     <row r="22" spans="1:16382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="21"/>
@@ -2169,10 +2169,10 @@
     </row>
     <row r="23" spans="1:16382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="37"/>
       <c r="D23" s="21"/>
@@ -2266,23 +2266,23 @@
     </row>
     <row r="26" spans="1:16382" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
@@ -2290,17 +2290,17 @@
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S26"/>
       <c r="T26"/>
       <c r="U26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V26"/>
       <c r="W26"/>
@@ -2308,30 +2308,30 @@
       <c r="Y26"/>
       <c r="Z26"/>
       <c r="AA26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB26" s="21"/>
       <c r="AC26" s="21"/>
     </row>
     <row r="27" spans="1:16382" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
@@ -2339,17 +2339,17 @@
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S27"/>
       <c r="T27"/>
       <c r="U27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V27"/>
       <c r="W27"/>
@@ -2357,30 +2357,30 @@
       <c r="Y27"/>
       <c r="Z27"/>
       <c r="AA27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB27" s="21"/>
       <c r="AC27" s="21"/>
     </row>
     <row r="28" spans="1:16382" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
@@ -2388,17 +2388,17 @@
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S28"/>
       <c r="T28"/>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V28"/>
       <c r="W28"/>
@@ -2406,30 +2406,30 @@
       <c r="Y28"/>
       <c r="Z28"/>
       <c r="AA28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB28" s="21"/>
       <c r="AC28" s="21"/>
     </row>
     <row r="29" spans="1:16382" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
@@ -2437,17 +2437,17 @@
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V29"/>
       <c r="W29"/>
@@ -2455,30 +2455,30 @@
       <c r="Y29"/>
       <c r="Z29"/>
       <c r="AA29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB29" s="21"/>
       <c r="AC29" s="21"/>
     </row>
     <row r="30" spans="1:16382" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
@@ -2486,17 +2486,17 @@
       <c r="M30"/>
       <c r="N30"/>
       <c r="O30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S30"/>
       <c r="T30"/>
       <c r="U30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V30"/>
       <c r="W30"/>
@@ -2504,20 +2504,20 @@
       <c r="Y30"/>
       <c r="Z30"/>
       <c r="AA30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB30" s="21"/>
       <c r="AC30" s="21"/>
     </row>
     <row r="31" spans="1:16382" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>

--- a/templates/2EXT01_RNA/2EXT01_RNA.xlsx
+++ b/templates/2EXT01_RNA/2EXT01_RNA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/2EXT01_RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9C514B-7D8B-8343-AFEB-6B07CA63D8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B8C237-AE6B-5244-BF80-4535B537D199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
   <si>
     <t>Source Name</t>
   </si>
@@ -310,9 +310,6 @@
     <t>cv</t>
   </si>
   <si>
-    <t>Include one of the following: total RNA, polyA RNA, cytoplasmic RNA, nuclear RNA, genomic DNA, protein, or other.</t>
-  </si>
-  <si>
     <t>The buffer used to extract the substance from the sample.</t>
   </si>
   <si>
@@ -436,7 +433,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,6 +482,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -529,7 +532,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -656,6 +659,7 @@
     <xf numFmtId="49" fontId="10" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1047,10 +1051,10 @@
   <dimension ref="A1:XFB34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="24" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="24" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1093,7 +1097,7 @@
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="4"/>
@@ -1689,7 +1693,7 @@
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
       <c r="U15" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -1713,12 +1717,12 @@
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" s="46"/>
       <c r="H16" s="46"/>
       <c r="I16" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J16" s="46"/>
       <c r="K16" s="46"/>
@@ -1726,17 +1730,17 @@
       <c r="M16" s="46"/>
       <c r="N16" s="46"/>
       <c r="O16" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
       <c r="R16" s="48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S16" s="23"/>
       <c r="T16" s="23"/>
       <c r="U16" s="47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V16" s="23"/>
       <c r="W16" s="23"/>
@@ -1744,7 +1748,7 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="23"/>
       <c r="AA16" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB16" s="22"/>
       <c r="AC16" s="22"/>
@@ -1863,10 +1867,10 @@
         <v>70</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
@@ -2000,10 +2004,10 @@
         <v>70</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="50"/>
       <c r="E21" s="50"/>
@@ -2423,7 +2427,7 @@
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="54" t="s">
         <v>92</v>
       </c>
       <c r="G29"/>
@@ -2465,16 +2469,14 @@
         <v>56</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>83</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
-      <c r="F30" s="21" t="s">
-        <v>93</v>
-      </c>
+      <c r="F30" s="21"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">

--- a/templates/2EXT01_RNA/2EXT01_RNA.xlsx
+++ b/templates/2EXT01_RNA/2EXT01_RNA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/2EXT01_RNA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\2EXT01_RNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F211A66E-523A-9A4B-87C2-C4FD59602564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489E7FB8-189C-4A4E-8795-4721AEAB2B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4720" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT01_RNA" sheetId="3" r:id="rId1"/>
@@ -491,9 +491,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{87CB12D2-5D32-5344-BA63-4377B67E3763}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -563,7 +563,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -886,40 +886,40 @@
       <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="154.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.1640625" style="11" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="57.33203125" style="11" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="69.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="58.1640625" style="11" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="64.33203125" style="11" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="37.33203125" style="11" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="48.1640625" style="11" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="54.33203125" style="11" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="51.125" style="11" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="57.375" style="11" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="69.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58.125" style="11" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="64.375" style="11" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="37.375" style="11" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="48.125" style="11" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="54.375" style="11" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="78" style="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="58.5" style="11" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="64.6640625" style="11" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="69.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="57.1640625" style="11" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="63.33203125" style="11" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="69.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="64.625" style="11" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="69.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="57.125" style="11" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="63.375" style="11" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="69.625" style="11" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="64" style="11" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="70.1640625" style="11" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="37.33203125" style="11" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="48.1640625" style="11" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="54.33203125" style="11" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="69.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="58.33203125" style="11" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="70.125" style="11" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="37.375" style="11" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="48.125" style="11" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="54.375" style="11" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="69.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="58.375" style="11" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="64.5" style="11" hidden="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.83203125" style="11"/>
+    <col min="29" max="16384" width="10.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>44</v>
       </c>
@@ -953,7 +953,7 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>44</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -1069,7 +1069,7 @@
       <c r="AA3"/>
       <c r="AB3"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="12"/>
@@ -1099,7 +1099,7 @@
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>45</v>
       </c>
@@ -1141,7 +1141,7 @@
       <c r="AA5" s="13"/>
       <c r="AB5" s="13"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>45</v>
       </c>
@@ -1181,7 +1181,7 @@
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>45</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>45</v>
       </c>
@@ -1249,7 +1249,7 @@
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>45</v>
       </c>
@@ -1281,7 +1281,7 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>45</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="12"/>
@@ -1343,7 +1343,7 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="12"/>
     </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>61</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="AA12" s="14"/>
       <c r="AB12" s="14"/>
     </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>62</v>
       </c>
@@ -1417,7 +1417,7 @@
       <c r="AA13" s="14"/>
       <c r="AB13" s="14"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="15"/>
@@ -1447,7 +1447,7 @@
       <c r="AA14" s="15"/>
       <c r="AB14" s="15"/>
     </row>
-    <row r="15" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>41</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="AA15" s="14"/>
       <c r="AB15" s="14"/>
     </row>
-    <row r="16" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>41</v>
       </c>
@@ -1539,7 +1539,7 @@
       <c r="AA16" s="14"/>
       <c r="AB16" s="14"/>
     </row>
-    <row r="17" spans="1:16381" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16381" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>41</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="AA17" s="14"/>
       <c r="AB17" s="14"/>
     </row>
-    <row r="18" spans="1:16381" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16381" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>41</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
     </row>
-    <row r="19" spans="1:16381" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16381" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>41</v>
       </c>
@@ -1675,7 +1675,7 @@
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
     </row>
-    <row r="20" spans="1:16381" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16381" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>41</v>
       </c>
@@ -18062,7 +18062,7 @@
       <c r="XEZ20" s="19"/>
       <c r="XFA20" s="19"/>
     </row>
-    <row r="21" spans="1:16381" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16381" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="20"/>
@@ -18092,7 +18092,7 @@
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
     </row>
-    <row r="22" spans="1:16381" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16381" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
@@ -34475,7 +34475,7 @@
       <c r="XEZ22" s="11"/>
       <c r="XFA22" s="11"/>
     </row>
-    <row r="23" spans="1:16381" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16381" x14ac:dyDescent="0.25">
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>

--- a/templates/2EXT01_RNA/2EXT01_RNA.xlsx
+++ b/templates/2EXT01_RNA/2EXT01_RNA.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT01_RNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4C0CD3-4164-42B8-B172-7AD4331FD5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0078519-3568-45AA-A6AD-D77836331C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT01_RNA" sheetId="1" r:id="rId1"/>
+    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,8 +25,28 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B2C9D632-6E8E-4E4D-B849-13347E0E2396}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B2C9D632-6E8E-4E4D-B849-13347E0E2396}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    The unique identifier of this template. It will be auto generated.
+Antwort:
+    id=52953c18-2f3e-41e4-9b64-e4b39a6f4685</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Source Name</t>
   </si>
@@ -91,6 +112,132 @@
   </si>
   <si>
     <t>Term Accession Number (NFDI4PSO:0000062)</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Docslink</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>#ER list</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>ER Term Accession Number</t>
+  </si>
+  <si>
+    <t>ER Term Source REF</t>
+  </si>
+  <si>
+    <t>#TAGS list</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Tags Term Accession Number</t>
+  </si>
+  <si>
+    <t>Tags Term Source REF</t>
+  </si>
+  <si>
+    <t>#AUTHORS list</t>
+  </si>
+  <si>
+    <t>Authors Last Name</t>
+  </si>
+  <si>
+    <t>Authors First Name</t>
+  </si>
+  <si>
+    <t>Authors Mid Initials</t>
+  </si>
+  <si>
+    <t>Authors Email</t>
+  </si>
+  <si>
+    <t>Authors Phone</t>
+  </si>
+  <si>
+    <t>Authors Fax</t>
+  </si>
+  <si>
+    <t>Authors Address</t>
+  </si>
+  <si>
+    <t>Authors Affiliation</t>
+  </si>
+  <si>
+    <t>#AUTHORS ROLES list</t>
+  </si>
+  <si>
+    <t>Authors Roles</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Source REF</t>
+  </si>
+  <si>
+    <t>52953c18-2f3e-41e4-9b64-e4b39a6f4685</t>
+  </si>
+  <si>
+    <t>RNA extraction</t>
+  </si>
+  <si>
+    <t>Template to describe the extraction of RNA.</t>
+  </si>
+  <si>
+    <t>annotationTableGoodDingo21</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>Extraction</t>
+  </si>
+  <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>er:GEO</t>
+  </si>
+  <si>
+    <t>mod:2EXT</t>
+  </si>
+  <si>
+    <t>Jabeen</t>
+  </si>
+  <si>
+    <t>Brilhaus</t>
+  </si>
+  <si>
+    <t>Hajira</t>
+  </si>
+  <si>
+    <t>Dominik</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
   </si>
 </sst>
 </file>
@@ -101,7 +248,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,19 +256,121 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF217346"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FCDB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E5C2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC21F3A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -130,10 +379,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -201,6 +480,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Oliver Maus" id="{CD9B9190-AE51-4CE9-8E50-90F32D97C7F5}" userId="Oliver Maus" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,9 +780,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2021-11-03T16:42:37.57" personId="{CD9B9190-AE51-4CE9-8E50-90F32D97C7F5}" id="{B2C9D632-6E8E-4E4D-B849-13347E0E2396}">
+    <text>The unique identifier of this template. It will be auto generated.</text>
+  </threadedComment>
+  <threadedComment ref="A1" dT="2021-11-03T16:42:37.57" personId="{CD9B9190-AE51-4CE9-8E50-90F32D97C7F5}" id="{4B404D90-CE94-46B4-87EF-69FB52AFB455}" parentId="{B2C9D632-6E8E-4E4D-B849-13347E0E2396}">
+    <text>id=52953c18-2f3e-41e4-9b64-e4b39a6f4685</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="634" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -638,4 +934,261 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F787C66-F665-436B-AEA3-3426D484FEC5}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<customXml>
+  <SwateTable Table="annotationTableGoodDingo21">
+    <TableValidation DateTime="2021-11-03 16:47" SwateVersion="0.5.1" TableName="annotationTableGoodDingo21" Userlist="">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [Bio entity]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [Biosource amount]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="8" ColumnHeader="Parameter [Extraction method]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Extraction buffer]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Extraction buffer volume]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="18" ColumnHeader="Parameter [RNA quality check]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="21" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
+    </TableValidation>
+  </SwateTable>
+</customXml>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE06DD7-E578-419D-9372-D72935A33CB2}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/templates/2EXT01_RNA/2EXT01_RNA.xlsx
+++ b/templates/2EXT01_RNA/2EXT01_RNA.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT01_RNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0078519-3568-45AA-A6AD-D77836331C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E73D29F-AE4C-45D5-A379-EA714AFC3E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT01_RNA" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="GEO_RNASEQ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="89">
   <si>
     <t>Source Name</t>
   </si>
@@ -238,6 +239,81 @@
   </si>
   <si>
     <t>1.1.3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TermSourceRef</t>
+  </si>
+  <si>
+    <t>Ontology</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>Content type (validation)</t>
+  </si>
+  <si>
+    <t>Notes during templating</t>
+  </si>
+  <si>
+    <t>Target term</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>Requirement (m/o/n)</t>
+  </si>
+  <si>
+    <t>Value (cv/s/d)</t>
+  </si>
+  <si>
+    <t>Additional information</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000012</t>
+  </si>
+  <si>
+    <t>NFDI4PSO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000012</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000013</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000013</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000054</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000054</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000050</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000050</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000051</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000051</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000062</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000062</t>
   </si>
 </sst>
 </file>
@@ -813,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1170,6 +1246,377 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTableGoodDingo21">

--- a/templates/2EXT01_RNA/2EXT01_RNA.xlsx
+++ b/templates/2EXT01_RNA/2EXT01_RNA.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT01_RNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E73D29F-AE4C-45D5-A379-EA714AFC3E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171D4B4E-F308-490C-BF80-C4C6DE898D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT01_RNA" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
     <sheet name="GEO_RNASEQ" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="100">
   <si>
     <t>Source Name</t>
   </si>
@@ -314,6 +323,39 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000062</t>
+  </si>
+  <si>
+    <t>Unit: microgram</t>
+  </si>
+  <si>
+    <t>Unit: Microliter</t>
+  </si>
+  <si>
+    <t>SAMPLES_molecule</t>
+  </si>
+  <si>
+    <t>Type of molecule that was extracted from the biological material. Include one of the following: total RNA, polyA RNA, cytoplasmic RNA, nuclear RNA, genomic DNA, protein, or other.</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>PROTOCOLS_extract protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe the protocols used to extract and prepare the material to be sequenced. </t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>at least some info is required, but not all terms</t>
   </si>
 </sst>
 </file>
@@ -373,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -451,11 +493,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD2D2D2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD2D2D2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD2D2D2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD2D2D2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -488,6 +545,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,7 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1250,9 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1262,7 +1323,7 @@
     <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1271,344 +1332,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="K2" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D9" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="14" t="s">
         <v>64</v>
       </c>
     </row>

--- a/templates/2EXT01_RNA/2EXT01_RNA.xlsx
+++ b/templates/2EXT01_RNA/2EXT01_RNA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT01_RNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171D4B4E-F308-490C-BF80-C4C6DE898D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84163D4-8D24-4B64-A6BE-2BC697C2093A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
   <si>
     <t>Source Name</t>
   </si>
@@ -247,9 +247,6 @@
     <t>Dominik</t>
   </si>
   <si>
-    <t>1.1.3</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -356,6 +353,39 @@
   </si>
   <si>
     <t>at least some info is required, but not all terms</t>
+  </si>
+  <si>
+    <t>RNA (Transcriptomics)</t>
+  </si>
+  <si>
+    <t>DNA (Genomics)</t>
+  </si>
+  <si>
+    <t>Metabolites</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>QIAGEN RNEasy</t>
+  </si>
+  <si>
+    <t>PCI method</t>
+  </si>
+  <si>
+    <t>QIAGEN RNEasy Buffer 2</t>
+  </si>
+  <si>
+    <t>phenol:chloroform:isopropanol</t>
+  </si>
+  <si>
+    <t>RIN: 8.1</t>
+  </si>
+  <si>
+    <t>RNA quality checked by PAGE</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
   </si>
 </sst>
 </file>
@@ -366,7 +396,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +408,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -509,8 +546,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -553,7 +591,8 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{F5E1E0D5-7FB4-4F22-8D3C-EFCDC257DFA2}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
@@ -628,8 +667,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4158286-A58C-485B-8494-948292CED1F3}" name="annotationTableGoodDingo21" displayName="annotationTableGoodDingo21" ref="A1:V2" totalsRowShown="0">
-  <autoFilter ref="A1:V2" xr:uid="{B4158286-A58C-485B-8494-948292CED1F3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4158286-A58C-485B-8494-948292CED1F3}" name="annotationTableGoodDingo21" displayName="annotationTableGoodDingo21" ref="A1:V5" totalsRowShown="0">
+  <autoFilter ref="A1:V5" xr:uid="{B4158286-A58C-485B-8494-948292CED1F3}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{DF71AA61-E923-4AAC-A8BA-9D46DCD4BAC1}" name="Source Name"/>
     <tableColumn id="3" xr3:uid="{17F12197-5A6B-46DB-84FA-86D856A5419D}" name="Parameter [Bio entity]"/>
@@ -935,6 +974,9 @@
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="662" row="2">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
@@ -948,9 +990,19 @@
 </we:webextension>
 </file>
 
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{37A029A9-1C46-4A69-B4EA-D70C9D760220}">
+  <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad84" version="0.5.1.0" store="\\DT-P-2020-04-OM\swate_manifests" storeType="Filesystem"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1049,23 +1101,106 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="2"/>
+      <c r="O2" s="2">
+        <v>200</v>
+      </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1108,7 +1243,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1333,40 +1468,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1374,13 +1509,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -1390,7 +1525,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1398,13 +1533,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -1414,7 +1549,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1422,33 +1557,33 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1456,35 +1591,35 @@
         <v>5</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>80</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="K5" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>99</v>
-      </c>
       <c r="L5" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1492,33 +1627,33 @@
         <v>9</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>82</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>99</v>
-      </c>
       <c r="L6" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1526,33 +1661,33 @@
         <v>12</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="K7" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>99</v>
-      </c>
       <c r="L7" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1560,35 +1695,35 @@
         <v>15</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="I8" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="J8" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="K8" s="14" t="s">
-        <v>99</v>
-      </c>
       <c r="L8" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1596,33 +1731,33 @@
         <v>19</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>88</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="I9" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="J9" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="K9" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="K9" s="14" t="s">
-        <v>99</v>
-      </c>
       <c r="L9" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1633,22 +1768,22 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTableGoodDingo21">
-    <TableValidation DateTime="2021-11-03 16:47" SwateVersion="0.5.1" TableName="annotationTableGoodDingo21" Userlist="">
-      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [Bio entity]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [Biosource amount]" Importance="None" Unit="None" ValidationFormat="None"/>
+    <TableValidation DateTime="2021-12-13 19:05" SwateVersion="0.5.1" TableName="annotationTableGoodDingo21" Userlist="">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="5" Unit="None" ValidationFormat="Text"/>
+      <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [Bio entity]" Importance="4" Unit="None" ValidationFormat="OntologyTerm (Bio entity)"/>
+      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [Biosource amount]" Importance="4" Unit="None" ValidationFormat="UnitTerm milligram"/>
       <ColumnValidation ColumnAdress="8" ColumnHeader="Parameter [Extraction method]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Extraction buffer]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Extraction buffer volume]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Extraction buffer]" Importance="4" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Extraction buffer volume]" Importance="4" Unit="None" ValidationFormat="UnitTerm microliter"/>
       <ColumnValidation ColumnAdress="18" ColumnHeader="Parameter [RNA quality check]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="21" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="21" ColumnHeader="Sample Name" Importance="5" Unit="None" ValidationFormat="Text"/>
     </TableValidation>
   </SwateTable>
 </customXml>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE06DD7-E578-419D-9372-D72935A33CB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{598E9532-73B5-45A6-90F3-D9D590F0DD8E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/2EXT01_RNA/2EXT01_RNA.xlsx
+++ b/templates/2EXT01_RNA/2EXT01_RNA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT01_RNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84163D4-8D24-4B64-A6BE-2BC697C2093A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FC89DF-43B4-4860-A555-3EDBDB4D04C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="117">
   <si>
     <t>Source Name</t>
   </si>
@@ -364,9 +364,6 @@
     <t>Metabolites</t>
   </si>
   <si>
-    <t>Protein</t>
-  </si>
-  <si>
     <t>QIAGEN RNEasy</t>
   </si>
   <si>
@@ -385,7 +382,31 @@
     <t>RNA quality checked by PAGE</t>
   </si>
   <si>
-    <t>1.1.4</t>
+    <t>user-specific</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000093</t>
+  </si>
+  <si>
+    <t>milligram</t>
+  </si>
+  <si>
+    <t>UO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000022</t>
+  </si>
+  <si>
+    <t>microliter</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000101</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
   </si>
 </sst>
 </file>
@@ -971,7 +992,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="613" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="662" row="2">
@@ -1011,9 +1032,9 @@
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="31.140625" bestFit="1" customWidth="1"/>
@@ -1104,68 +1125,140 @@
       <c r="B2" t="s">
         <v>99</v>
       </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="L2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="O2" s="2">
         <v>200</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="S2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>100</v>
       </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="L3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="S3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
+      <c r="U3" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>101</v>
       </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1173,21 +1266,39 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>102</v>
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>110</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1195,9 +1306,15 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="P5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -1243,7 +1360,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
